--- a/Documentation/Working_Documents/Playback_Switch_BOM.xlsx
+++ b/Documentation/Working_Documents/Playback_Switch_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Playback Switch/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradw\GitHub\Playback-Switch\Documentation\Working_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834F5424-D0CE-4C1B-968E-CDC1407172ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03334379-F0E2-47D1-954A-ADFE0106759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Device: Playback Switch</t>
   </si>
@@ -174,16 +174,31 @@
   <si>
     <t>Part and description</t>
   </si>
+  <si>
+    <t>https://www.amazon.ca/Dog-Buttons-Communication-Communicate-Recordable/dp/B0BRBJR2L7/ref=sr_1_3_sspa?crid=G3LE9F4CIW5E&amp;dib=eyJ2IjoiMSJ9.g2Wg9arQW80HgOafvNQZdWAiExGgb6cVQZDPQUbH-vzBIZE5zWnRr5czpj_P0FjLbd7e6lF630eP-x0NRoYH_ex_3oO_iPW89fNoGqJwtlZpu_V4prUsJlTy5e0g86pgMuuwz4MzpFtW-0dhU_pcV9xux2nJt4ToKT7OTUdQXk5hSdUyge-QhNCOqGQsxx7iesjW8KGwmqHROHtsgFYcQ9QBg-4-UOhnP2QmmeterSK_jLGbYCfMihZ1foSysv5RaZzrmpKwocdzs9gfa7JAUuK07nS0bqT7N8obU9JrTBk.eT1u9-MP8uU8C14GzKjJIuSTIGjQdybGn6l07RZpb_4&amp;dib_tag=se&amp;keywords=dog+button&amp;qid=1710437383&amp;sprefix=dog+button%2Caps%2C169&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Recording-Buttons-Communication-Training-Playback/dp/B09P8VNKRQ/ref=sr_1_6?crid=G3LE9F4CIW5E&amp;dib=eyJ2IjoiMSJ9.g2Wg9arQW80HgOafvNQZdWAiExGgb6cVQZDPQUbH-vzBIZE5zWnRr5czpj_P0FjLbd7e6lF630eP-x0NRoYH_ex_3oO_iPW89fNoGqJwtlZpu_V4prUsJlTy5e0g86pgMuuwz4MzpFtW-0dhU_pcV9xux2nJt4ToKT7OTUdQXk5hSdUyge-QhNCOqGQsxx7iesjW8KGwmqHROHtsgFYcQ9QBg-4-UOhnP2QmmeterSK_jLGbYCfMihZ1foSysv5RaZzrmpKwocdzs9gfa7JAUuK07nS0bqT7N8obU9JrTBk.eT1u9-MP8uU8C14GzKjJIuSTIGjQdybGn6l07RZpb_4&amp;dib_tag=se&amp;keywords=dog+button&amp;qid=1710437383&amp;sprefix=dog+button%2Caps%2C169&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Recording-Buttons-Training-Communication-Playback/dp/B0CB5GYJRB/ref=sr_1_14?crid=G3LE9F4CIW5E&amp;dib=eyJ2IjoiMSJ9.g2Wg9arQW80HgOafvNQZdWAiExGgb6cVQZDPQUbH-vzBIZE5zWnRr5czpj_P0FjLbd7e6lF630eP-x0NRoYH_ex_3oO_iPW89fNoGqJwtlZpu_V4prUsJlTy5e0g86pgMuuwz4MzpFtW-0dhU_pcV9xux2nJt4ToKT7OTUdQXk5hSdUyge-QhNCOqGQsxx7iesjW8KGwmqHROHtsgFYcQ9QBg-4-UOhnP2QmmeterSK_jLGbYCfMihZ1foSysv5RaZzrmpKwocdzs9gfa7JAUuK07nS0bqT7N8obU9JrTBk.eT1u9-MP8uU8C14GzKjJIuSTIGjQdybGn6l07RZpb_4&amp;dib_tag=se&amp;keywords=dog+button&amp;qid=1710437383&amp;sprefix=dog+button%2Caps%2C169&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Dog Buttons for Communictation</t>
+  </si>
+  <si>
+    <t>Recording button 8 pack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +481,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,33 +493,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -790,28 +805,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36">
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -845,12 +860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -879,7 +894,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -907,7 +922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -935,7 +950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -963,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -991,16 +1006,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
@@ -1012,7 +1027,7 @@
       <c r="G12" s="23"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1035,42 +1050,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E14" s="17">
         <f>(D14/1000)*$B$12</f>
         <v>0</v>
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E15" s="17">
         <f t="shared" ref="E15:E18" si="1">(D15/1000)*$B$12</f>
         <v>0</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E17" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E18" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="D19" s="20" t="s">
         <v>31</v>
@@ -1081,7 +1096,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
@@ -1097,37 +1112,37 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>39</v>
       </c>
@@ -1143,12 +1158,36 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1164,26 +1203,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100456CAEA290209545A9F8681F83603874" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e35f94ae33f6d332f6080062d75f0ffe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8cf100d1-0775-4feb-8634-62999c4541bc" xmlns:ns3="38b325e6-602c-452a-8617-173bf47082c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e79f0fd5754c50ae17b688c6992d0ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8cf100d1-0775-4feb-8634-62999c4541bc"/>
@@ -1432,14 +1451,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="38b325e6-602c-452a-8617-173bf47082c5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8cf100d1-0775-4feb-8634-62999c4541bc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADB6F42-BC99-4098-8823-5C542BA34E95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38b325e6-602c-452a-8617-173bf47082c5"/>
+    <ds:schemaRef ds:uri="8cf100d1-0775-4feb-8634-62999c4541bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CADB6F42-BC99-4098-8823-5C542BA34E95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>